--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/renovationUpdates/server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A411B-651E-CF40-BF62-74BCC0A61013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88CBF4-FE76-E84B-B102-70E764CD4B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Algo</t>
   </si>
@@ -552,6 +552,56 @@
 Assignment: name- Solution past paper (12 images), img- /TPL/past paper solved1.png*/TPL/past paper solved2.png*/TPL/past paper solved3.png*/TPL/past paper solved4.png*/TPL/past paper solved5.png*/TPL/past paper solved6.png*/TPL/past paper solved7.png*/TPL/past paper solved8.png*/TPL/past paper solved9.png*/TPL/past paper solved10.png*/TPL/past paper solved11.png*/TPL/past paper solved12.png;
 Assignment: name- Solution of above paper in pdf, link- TPL Solved Past Paper Finals Fall 2018.pdf;
 Note: heading- Sullabus is final. Chapter 3 to 5 were taught before mids are also included for finals.;</t>
+  </si>
+  <si>
+    <t>ATOC</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:20;
+Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1, duration- 00:00;
+Slides: slide- Course.pdf;
+Slides: slide- Lec1.pdf;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
+Video: link- https://drive.google.com/file/d/1LLPqYvPSZruiDnWQfo4C6cxPAwNAJBAc/preview, name- ATC Week#2, duration- 01:44;
+Slides: slide- Lec1.pdf;</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:37;
+Video: link- https://drive.google.com/file/d/1YOq3u1x-LfM-TkOvDmc8IIrJ3l2MCywy/preview, name- AOS Week#1part1.mp4, duration- 01:09;
+Video: link- https://drive.google.com/file/d/1Nh8zm9SXHbo87Ge5tT8hdPpfrUb1AlaK/preview, name- AOS Week#1part2.mp4, duration- 00:28;</t>
+  </si>
+  <si>
+    <t>STQA</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 00:00;
+Slides: slide- Chapter1.pptx;</t>
+  </si>
+  <si>
+    <t>Subject: Advanced Theory of Computation;
+Instructor: Dr Ali Arshad;
+ClassSenior: +92 313 7408286;
+Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 / course. In this payment all courses will be open.;
+CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t>Subject: Advanced Operating System;
+Instructor: Dr Nasir Mehmood;
+ClassSenior: 0323213212;
+Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
+CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t>Subject: Software Testing and Quality Assurance;
+Instructor: Dr Abdul Hannan;
+ClassSenior: N/A;
+Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
+CreditHours: 3.0;</t>
   </si>
 </sst>
 </file>
@@ -968,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,8 +1028,11 @@
     <col min="3" max="3" width="43.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="55.6640625" style="7" customWidth="1"/>
     <col min="5" max="6" width="50" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="54.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="49" style="7" customWidth="1"/>
+    <col min="9" max="9" width="47.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1001,10 +1054,18 @@
       <c r="F1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1021,10 +1082,19 @@
       <c r="F2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="14"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>43720</v>
       </c>
@@ -1041,7 +1111,15 @@
       <c r="F3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="289" x14ac:dyDescent="0.2">
@@ -1059,7 +1137,9 @@
         <v>33</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="272" x14ac:dyDescent="0.2">
@@ -1221,7 +1301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14" t="s">
@@ -1263,6 +1343,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA88CBF4-FE76-E84B-B102-70E764CD4B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65854BDF-9D6D-2742-8692-464C11C3E029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -571,11 +571,6 @@
     <t>AOS</t>
   </si>
   <si>
-    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:37;
-Video: link- https://drive.google.com/file/d/1YOq3u1x-LfM-TkOvDmc8IIrJ3l2MCywy/preview, name- AOS Week#1part1.mp4, duration- 01:09;
-Video: link- https://drive.google.com/file/d/1Nh8zm9SXHbo87Ge5tT8hdPpfrUb1AlaK/preview, name- AOS Week#1part2.mp4, duration- 00:28;</t>
-  </si>
-  <si>
     <t>STQA</t>
   </si>
   <si>
@@ -590,15 +585,21 @@
 CreditHours: 3.0;</t>
   </si>
   <si>
+    <t>Subject: Software Testing and Quality Assurance;
+Instructor: Dr Abdul Hannan;
+ClassSenior: N/A;
+Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
+CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:37;
+Video: link- https://drive.google.com/file/d/1YOq3u1x-LfM-TkOvDmc8IIrJ3l2MCywy/preview, name- AOS Week#1part1.mp4, duration- 01:09;
+Video: link- https://drive.google.com/file/d/1Nh8zm9SXHbo87Ge5tT8hdPpfrUb1AlaK/preview, name- AOS Week#1part2.mp4, duration- 00:28;
+Slides: slide- Chapter 2.ppt;</t>
+  </si>
+  <si>
     <t>Subject: Advanced Operating System;
 Instructor: Dr Nasir Mehmood;
-ClassSenior: 0323213212;
-Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
-CreditHours: 3.0;</t>
-  </si>
-  <si>
-    <t>Subject: Software Testing and Quality Assurance;
-Instructor: Dr Abdul Hannan;
 ClassSenior: N/A;
 Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
 CreditHours: 3.0;</t>
@@ -1019,7 +1020,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1062,7 @@
         <v>80</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N1" s="6"/>
     </row>
@@ -1083,13 +1084,13 @@
         <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="J2" s="14"/>
       <c r="N2" s="6"/>
@@ -1115,10 +1116,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="6"/>
     </row>

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65854BDF-9D6D-2742-8692-464C11C3E029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD4EA3-B1A8-8D49-AFC9-4E1258C2B119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -574,24 +574,6 @@
     <t>STQA</t>
   </si>
   <si>
-    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 00:00;
-Slides: slide- Chapter1.pptx;</t>
-  </si>
-  <si>
-    <t>Subject: Advanced Theory of Computation;
-Instructor: Dr Ali Arshad;
-ClassSenior: +92 313 7408286;
-Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 / course. In this payment all courses will be open.;
-CreditHours: 3.0;</t>
-  </si>
-  <si>
-    <t>Subject: Software Testing and Quality Assurance;
-Instructor: Dr Abdul Hannan;
-ClassSenior: N/A;
-Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
-CreditHours: 3.0;</t>
-  </si>
-  <si>
     <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:37;
 Video: link- https://drive.google.com/file/d/1YOq3u1x-LfM-TkOvDmc8IIrJ3l2MCywy/preview, name- AOS Week#1part1.mp4, duration- 01:09;
 Video: link- https://drive.google.com/file/d/1Nh8zm9SXHbo87Ge5tT8hdPpfrUb1AlaK/preview, name- AOS Week#1part2.mp4, duration- 00:28;
@@ -600,8 +582,29 @@
   <si>
     <t>Subject: Advanced Operating System;
 Instructor: Dr Nasir Mehmood;
+ClassSenior: Awais, +92 323 7800196;
+Note: Stay tuned for updates.;
+CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t>Subject: Advanced Theory of Computation;
+Instructor: Dr Ali Arshad;
+ClassSenior: +92 313 7408286;
+Note:  Stay tuned for updates.;
+CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic: name- Week 1,lectures- 1 Lecture, duration- 00:00;
+Slides: slide- Chapter1.pptx;
+Assignment: name- Assignment 1 (Deadline 1st Feb 2020), img- /STQA/Assignment 1.png;
+Note: heading- Submit assignment if you are late. Sir might accept it. I also have not done it yet.;
+</t>
+  </si>
+  <si>
+    <t>Subject: Software Testing and Quality Assurance;
+Instructor: Dr Abdul Hannan;
 ClassSenior: N/A;
-Note: This website is going premium in 3 to 4 days. You can register yourself by contacting Qasim at Rs 350 / month or Rs 1400 one time / course duration. In this payment all courses will be open.;
+Note: Stay tuned for updates.;
 CreditHours: 3.0;</t>
   </si>
 </sst>
@@ -1019,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1069,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1084,13 +1087,13 @@
         <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="J2" s="14"/>
       <c r="N2" s="6"/>
@@ -1116,10 +1119,10 @@
         <v>78</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="N3" s="6"/>
     </row>

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD4EA3-B1A8-8D49-AFC9-4E1258C2B119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3863A4-3AFC-F34B-839A-0352FB2B6C97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20360" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Algo</t>
   </si>
@@ -557,12 +557,6 @@
     <t>ATOC</t>
   </si>
   <si>
-    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:20;
-Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1, duration- 00:00;
-Slides: slide- Course.pdf;
-Slides: slide- Lec1.pdf;</t>
-  </si>
-  <si>
     <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
 Video: link- https://drive.google.com/file/d/1LLPqYvPSZruiDnWQfo4C6cxPAwNAJBAc/preview, name- ATC Week#2, duration- 01:44;
 Slides: slide- Lec1.pdf;</t>
@@ -572,12 +566,6 @@
   </si>
   <si>
     <t>STQA</t>
-  </si>
-  <si>
-    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:37;
-Video: link- https://drive.google.com/file/d/1YOq3u1x-LfM-TkOvDmc8IIrJ3l2MCywy/preview, name- AOS Week#1part1.mp4, duration- 01:09;
-Video: link- https://drive.google.com/file/d/1Nh8zm9SXHbo87Ge5tT8hdPpfrUb1AlaK/preview, name- AOS Week#1part2.mp4, duration- 00:28;
-Slides: slide- Chapter 2.ppt;</t>
   </si>
   <si>
     <t>Subject: Advanced Operating System;
@@ -587,13 +575,6 @@
 CreditHours: 3.0;</t>
   </si>
   <si>
-    <t>Subject: Advanced Theory of Computation;
-Instructor: Dr Ali Arshad;
-ClassSenior: +92 313 7408286;
-Note:  Stay tuned for updates.;
-CreditHours: 3.0;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Topic: name- Week 1,lectures- 1 Lecture, duration- 00:00;
 Slides: slide- Chapter1.pptx;
 Assignment: name- Assignment 1 (Deadline 1st Feb 2020), img- /STQA/Assignment 1.png;
@@ -606,6 +587,36 @@
 ClassSenior: N/A;
 Note: Stay tuned for updates.;
 CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 1,lectures- 2 Lectures, duration- 01:37;
+Video: link- https://drive.google.com/file/d/1YOq3u1x-LfM-TkOvDmc8IIrJ3l2MCywy/preview, name- AOS Week#1part1.mp4, duration- 01:09;
+Video: link- https://drive.google.com/file/d/1Nh8zm9SXHbo87Ge5tT8hdPpfrUb1AlaK/preview, name- AOS Week#1part2.mp4, duration- 00:28;
+Slides: slide- Chapter 2.ppt;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:33;
+Video: link- https://drive.google.com/file/d/18qBlYxrN38HZh1pjIysBGtg8SF1JSLY0/preview, name- AOS Week#1part1.mp4, duration- 01:33;
+Slides: slide- Chapter 3.ppt;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:49;
+Video: link- https://drive.google.com/file/d/15puMyWTcN0p2nEstcIl5CfRdY9_QJMQ9/preview, name- ATC Week#3, duration- 00:31;
+Video: link- https://drive.google.com/file/d/1LHMHVg2vCtKk4WZw6evB8Ly6JOxUGj8X/preview, name- ATC Week#3, duration- 01:18;
+Slides: slide- Lec1.pdf;</t>
+  </si>
+  <si>
+    <t>Subject: Advanced Theory of Computation;
+Instructor: Dr Ali Arshad;
+ClassSenior: Hassan, +92 313 7408286;
+Note:  Stay tuned for updates.;
+CreditHours: 3.0;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:20;
+Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1, duration- 01:20;
+Slides: slide- Course.pdf;
+Slides: slide- Lec1.pdf;</t>
   </si>
 </sst>
 </file>
@@ -662,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,6 +716,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,10 +1076,10 @@
         <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="N1" s="6"/>
     </row>
@@ -1087,13 +1101,13 @@
         <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="J2" s="14"/>
       <c r="N2" s="6"/>
@@ -1116,13 +1130,13 @@
         <v>50</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="N3" s="6"/>
     </row>
@@ -1142,7 +1156,10 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="N4" s="6"/>
     </row>
@@ -1160,6 +1177,9 @@
       <c r="E5" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="238" x14ac:dyDescent="0.2">
@@ -1212,7 +1232,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>43775</v>
       </c>
@@ -1305,7 +1325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14" t="s">

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3863A4-3AFC-F34B-839A-0352FB2B6C97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BEFEE-628E-8E47-BCB1-31AC1F780D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20360" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35800" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,8 @@
     <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:20;
 Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1, duration- 01:20;
 Slides: slide- Course.pdf;
-Slides: slide- Lec1.pdf;</t>
+Slides: slide- Lec1.pdf;
+Topics: Finite state machine, Applications of Finite Automata, Proving techniques</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1233,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>43775</v>
       </c>

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BEFEE-628E-8E47-BCB1-31AC1F780D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F98051-BC60-0240-B45F-B11340F44AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35800" windowHeight="18000" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>Algo</t>
   </si>
@@ -557,11 +557,6 @@
     <t>ATOC</t>
   </si>
   <si>
-    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
-Video: link- https://drive.google.com/file/d/1LLPqYvPSZruiDnWQfo4C6cxPAwNAJBAc/preview, name- ATC Week#2, duration- 01:44;
-Slides: slide- Lec1.pdf;</t>
-  </si>
-  <si>
     <t>AOS</t>
   </si>
   <si>
@@ -595,17 +590,6 @@
 Slides: slide- Chapter 2.ppt;</t>
   </si>
   <si>
-    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:33;
-Video: link- https://drive.google.com/file/d/18qBlYxrN38HZh1pjIysBGtg8SF1JSLY0/preview, name- AOS Week#1part1.mp4, duration- 01:33;
-Slides: slide- Chapter 3.ppt;</t>
-  </si>
-  <si>
-    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:49;
-Video: link- https://drive.google.com/file/d/15puMyWTcN0p2nEstcIl5CfRdY9_QJMQ9/preview, name- ATC Week#3, duration- 00:31;
-Video: link- https://drive.google.com/file/d/1LHMHVg2vCtKk4WZw6evB8Ly6JOxUGj8X/preview, name- ATC Week#3, duration- 01:18;
-Slides: slide- Lec1.pdf;</t>
-  </si>
-  <si>
     <t>Subject: Advanced Theory of Computation;
 Instructor: Dr Ali Arshad;
 ClassSenior: Hassan, +92 313 7408286;
@@ -613,8 +597,35 @@
 CreditHours: 3.0;</t>
   </si>
   <si>
+    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:33;
+Video: link- https://drive.google.com/file/d/18qBlYxrN38HZh1pjIysBGtg8SF1JSLY0/preview, name- AOS Week#2part1.mp4, duration- 01:33;
+Slides: slide- Chapter 3.ppt;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:38;
+Video: link- https://drive.google.com/file/d/1CEA0dNMZFnAwwcInBt37frFSakNJSyuO/preview, name- AOS Week#3part1.mp4, duration- 01:06;
+Video: link- https://drive.google.com/file/d/19aBooNe8gvSiXqm-yxEMN2AHg0KthhYP/preview, name- AOS Week#3part2.mp4, duration- 00:32;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 4,lectures- 3 Lectures, duration- 01:40;
+Video: link- https://drive.google.com/file/d/1dWC0HSI8lJ4ASxDgWuTYJ3bl1GrZ-Z-5/preview, name- ATOC Week#4Part1.mp4, duration- 00:50;
+Video: link- https://drive.google.com/file/d/1qLxWUU9e9HeNY8DNLhalPa_CQbaxo8k_/preview, name- ATOC Week#4Part2.mp4, duration- 00:48;
+Video: link- https://drive.google.com/file/d/1ZKP1-pdg6o_ifZ4GOkHRCjUUrnaqArza/preview, name- ATOC Week#4Part3.mp4, duration- 00:02;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:49;
+Video: link- https://drive.google.com/file/d/15puMyWTcN0p2nEstcIl5CfRdY9_QJMQ9/preview, name- ATC Week#3Part1.mp4, duration- 00:31;
+Video: link- https://drive.google.com/file/d/1LHMHVg2vCtKk4WZw6evB8Ly6JOxUGj8X/preview, name- ATC Week#3Part2.mp4, duration- 01:18;
+Slides: slide- Lec1.pdf;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
+Video: link- https://drive.google.com/file/d/1LLPqYvPSZruiDnWQfo4C6cxPAwNAJBAc/preview, name- ATC Week#2.mp4, duration- 01:44;
+Slides: slide- Lec1.pdf;</t>
+  </si>
+  <si>
     <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:20;
-Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1, duration- 01:20;
+Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1.mp4, duration- 01:20;
 Slides: slide- Course.pdf;
 Slides: slide- Lec1.pdf;
 Topics: Finite state machine, Applications of Finite Automata, Proving techniques</t>
@@ -1037,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,10 +1088,10 @@
         <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="N1" s="6"/>
     </row>
@@ -1102,13 +1113,13 @@
         <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="14"/>
       <c r="N2" s="6"/>
@@ -1131,13 +1142,13 @@
         <v>50</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="6"/>
     </row>
@@ -1157,7 +1168,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>85</v>
@@ -1179,6 +1190,9 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>86</v>
       </c>
       <c r="N5" s="5"/>
@@ -1197,6 +1211,9 @@
       <c r="E6" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="G6" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="323" x14ac:dyDescent="0.2">
@@ -1233,7 +1250,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>43775</v>
       </c>

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F98051-BC60-0240-B45F-B11340F44AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33266A-438C-754A-8390-9123818B9338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>Algo</t>
   </si>
@@ -602,11 +602,6 @@
 Slides: slide- Chapter 3.ppt;</t>
   </si>
   <si>
-    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:38;
-Video: link- https://drive.google.com/file/d/1CEA0dNMZFnAwwcInBt37frFSakNJSyuO/preview, name- AOS Week#3part1.mp4, duration- 01:06;
-Video: link- https://drive.google.com/file/d/19aBooNe8gvSiXqm-yxEMN2AHg0KthhYP/preview, name- AOS Week#3part2.mp4, duration- 00:32;</t>
-  </si>
-  <si>
     <t>Topic: name- Week 4,lectures- 3 Lectures, duration- 01:40;
 Video: link- https://drive.google.com/file/d/1dWC0HSI8lJ4ASxDgWuTYJ3bl1GrZ-Z-5/preview, name- ATOC Week#4Part1.mp4, duration- 00:50;
 Video: link- https://drive.google.com/file/d/1qLxWUU9e9HeNY8DNLhalPa_CQbaxo8k_/preview, name- ATOC Week#4Part2.mp4, duration- 00:48;
@@ -629,6 +624,44 @@
 Slides: slide- Course.pdf;
 Slides: slide- Lec1.pdf;
 Topics: Finite state machine, Applications of Finite Automata, Proving techniques</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 5, lectures- 4 Lectures, duration- 01:23;
+Video: link- https://drive.google.com/file/d/1MFTDv0iYQzWbW_4VCX7PgDr3-UYf4800/preview, name- ATOC Week#5Part1.mp4, duration- 00:27;
+Video: link- https://drive.google.com/file/d/17RximV5JzVFI3eu-9ir6eFv8s_kbdfAe/preview, name- ATOC Week#5Part2.mp4, duration- 00:01;
+Video: link- https://drive.google.com/file/d/1pSGNEYEJkci8ely09oc-rdTtnI2ljeqE/preview, name- ATOC Week#5Part3.mp4, duration- 00:53;
+Video: link- https://drive.google.com/file/d/1NJH2YpnIsmDwipOJSgILBo_Ta0u6klH4/preview, name- ATOC Week#5Part4.mp4, duration- 00:02;
+Note: heading- Presentation in next class;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 6, lectures- 3 Lectures, duration- 01:34;
+Video: link- https://drive.google.com/file/d/1XSMfs_FmJKSzxEFjuYD_4Wu-qYSvFrai/preview, name- ATOC Week#6Part1.mp4, duration- 00:18;
+Video: link- https://drive.google.com/file/d/1ukdXyaYhnJEsV2N4Y8-I6metWzm4_qqu/preview, name- ATOC Week#6Part2.mp4, duration- 01:14;
+Video: link- https://drive.google.com/file/d/1P6PLNm_nXYdaUmOX-W4U0IwYRNgbp8FR/preview, name- ATOC Week#6Part3.mp4, duration- 00:02;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 2, lectures- 1 Lecture, duration- 00:35;
+Video: link- https://drive.google.com/file/d/1Q6d8GiRyOwbBX8aSjLix4pxttUs9xB_-/preview, name- STQA Week#2part1.mp4, duration- 00:35;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 3, lectures- 1 Lecture, duration- 01:00;
+Video: link- https://drive.google.com/file/d/1ULwy1htskQHkuXh684Rr94S-TJnuLMWa/preview, name- STQA Week#3part1.mp4, duration- 01:00;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 3, lectures- 2 Lectures, duration- 01:38;
+Video: link- https://drive.google.com/file/d/1CEA0dNMZFnAwwcInBt37frFSakNJSyuO/preview, name- AOS Week#3part1.mp4, duration- 01:06;
+Video: link- https://drive.google.com/file/d/19aBooNe8gvSiXqm-yxEMN2AHg0KthhYP/preview, name- AOS Week#3part2.mp4, duration- 00:32;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 4, lectures- 3 Lectures, duration- 01:23;
+Video: link- https://drive.google.com/file/d/1-0mGSVBAilQy22W6LntqSRnrUnam_9OS/preview, name- AOS Week4part1.mp4, duration- 00:09;
+Video: link- https://drive.google.com/file/d/1eVs08UR6fAFRWO1dj7ejMPo19JCGVGXB/preview, name- AOS Week#4part2.mp4, duration- 01:08;
+Video: link- https://drive.google.com/file/d/1a99Py9JBVIGX8qyeg-GS36N1BRAxhTbl/preview, name- AOS Week#4part3.mp4, duration- 00:06;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 5, lectures- 2 Lectures, duration- 01:09;
+Video: link- https://drive.google.com/file/d/1p65AFQnFqjgadbb6Z6iOBRrxk4hrAPYU/preview, name- AOS Week5part1.mp4, duration- 01:01;
+Video: link- https://drive.google.com/file/d/1v73JQCmN0GASJYm3syH_MdRRcuVtO8kM/preview, name- AOS Week#5part2.mp4, duration- 00:08;</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1157,7 @@
       <c r="J2" s="14"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>43720</v>
       </c>
@@ -1142,7 +1175,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>83</v>
@@ -1168,10 +1201,13 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>85</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="N4" s="6"/>
     </row>
@@ -1190,10 +1226,13 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="N5" s="5"/>
     </row>
@@ -1212,7 +1251,10 @@
         <v>34</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="N6" s="5"/>
     </row>
@@ -1231,7 +1273,12 @@
         <v>41</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="255" x14ac:dyDescent="0.2">
@@ -1249,6 +1296,9 @@
         <v>40</v>
       </c>
       <c r="F8" s="10"/>
+      <c r="G8" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33266A-438C-754A-8390-9123818B9338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE1C66D-97DD-D147-9BF2-BD3C68F7DDEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>Algo</t>
   </si>
@@ -662,6 +662,33 @@
     <t>Topic: name- Week 5, lectures- 2 Lectures, duration- 01:09;
 Video: link- https://drive.google.com/file/d/1p65AFQnFqjgadbb6Z6iOBRrxk4hrAPYU/preview, name- AOS Week5part1.mp4, duration- 01:01;
 Video: link- https://drive.google.com/file/d/1v73JQCmN0GASJYm3syH_MdRRcuVtO8kM/preview, name- AOS Week#5part2.mp4, duration- 00:08;</t>
+  </si>
+  <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
+Assignment: name- Course for Mid Term, img- /ATOC/course.jpeg;
+Slides: slide- Course.pdf;
+Slides: slide- Lec1.pdf;
+Note: heading- Watch all lectures taught in class to prepare for exams;</t>
+  </si>
+  <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  14 Mar | 11:00-12:30;
+Assignment: name- Course for Mid Term, img- /AOS/course.jpeg;
+Slides: slide- Chapter1.pptx;
+Slides: slide- Chapter2.pptx;
+Slides: slide- Chapter3.ppt;
+Slides: slide- Paper No 1.pdf;
+Slides: slide- Paper No 2.pdf;
+Slides: slide- Paper No 3.pdf;
+Note: heading- Prepare all lectures pasted above. Must read book. I do not have yet. I will share as I get it.;</t>
+  </si>
+  <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  15 Mar | 11:00-12:30;
+Assignment: name- Course for Mid Term, img- /AOS/course.jpeg;
+Slides: slide- Chapter 1.ppt;
+Slides: slide- Chapter 2.ppt;
+Slides: slide- Chapter 3.ppt;
+Assignment: name- Picture of Board, img- /AOS/board.jpeg;
+Note: heading- Prepare all lectures pasted above.;</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,6 +1283,9 @@
       <c r="H6" s="15" t="s">
         <v>95</v>
       </c>
+      <c r="I6" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="323" x14ac:dyDescent="0.2">
@@ -1299,6 +1329,9 @@
       <c r="G8" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="H8" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1313,6 +1346,9 @@
       </c>
       <c r="E9" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="238" x14ac:dyDescent="0.2">

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE1C66D-97DD-D147-9BF2-BD3C68F7DDEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46FC9F1-2556-F14A-A413-3F123186E365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -671,8 +671,17 @@
 Note: heading- Watch all lectures taught in class to prepare for exams;</t>
   </si>
   <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  15 Mar | 11:00-12:30;
+Assignment: name- Course for Mid Term, img- /AOS/course.jpeg;
+Slides: slide- Chapter 1.ppt;
+Slides: slide- Chapter 2.ppt;
+Slides: slide- Chapter 3.ppt;
+Assignment: name- Picture of Board, img- /AOS/board.jpeg;
+Note: heading- Prepare all lectures pasted above.;</t>
+  </si>
+  <si>
     <t>Topic: name- Mid Term Exam, lectures- , duration-  14 Mar | 11:00-12:30;
-Assignment: name- Course for Mid Term, img- /AOS/course.jpeg;
+Assignment: name- Course for Mid Term, img- /STQA/course.jpeg;
 Slides: slide- Chapter1.pptx;
 Slides: slide- Chapter2.pptx;
 Slides: slide- Chapter3.ppt;
@@ -680,15 +689,6 @@
 Slides: slide- Paper No 2.pdf;
 Slides: slide- Paper No 3.pdf;
 Note: heading- Prepare all lectures pasted above. Must read book. I do not have yet. I will share as I get it.;</t>
-  </si>
-  <si>
-    <t>Topic: name- Mid Term Exam, lectures- , duration-  15 Mar | 11:00-12:30;
-Assignment: name- Course for Mid Term, img- /AOS/course.jpeg;
-Slides: slide- Chapter 1.ppt;
-Slides: slide- Chapter 2.ppt;
-Slides: slide- Chapter 3.ppt;
-Assignment: name- Picture of Board, img- /AOS/board.jpeg;
-Note: heading- Prepare all lectures pasted above.;</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1284,7 @@
         <v>95</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N6" s="5"/>
     </row>
@@ -1330,7 +1330,7 @@
         <v>91</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46FC9F1-2556-F14A-A413-3F123186E365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD6B83-BDE1-624B-96BA-A5669B71065C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -664,13 +664,6 @@
 Video: link- https://drive.google.com/file/d/1v73JQCmN0GASJYm3syH_MdRRcuVtO8kM/preview, name- AOS Week#5part2.mp4, duration- 00:08;</t>
   </si>
   <si>
-    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
-Assignment: name- Course for Mid Term, img- /ATOC/course.jpeg;
-Slides: slide- Course.pdf;
-Slides: slide- Lec1.pdf;
-Note: heading- Watch all lectures taught in class to prepare for exams;</t>
-  </si>
-  <si>
     <t>Topic: name- Mid Term Exam, lectures- , duration-  15 Mar | 11:00-12:30;
 Assignment: name- Course for Mid Term, img- /AOS/course.jpeg;
 Slides: slide- Chapter 1.ppt;
@@ -689,6 +682,13 @@
 Slides: slide- Paper No 2.pdf;
 Slides: slide- Paper No 3.pdf;
 Note: heading- Prepare all lectures pasted above. Must read book. I do not have yet. I will share as I get it.;</t>
+  </si>
+  <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
+Assignment: name- Course for Mid Term, img- /ATOC/Course.jpeg;
+Slides: slide- Course.pdf;
+Slides: slide- Lec1.pdf;
+Note: heading- Watch all lectures taught in class to prepare for exams;</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1284,7 @@
         <v>95</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6" s="5"/>
     </row>
@@ -1330,7 +1330,7 @@
         <v>91</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -1348,7 +1348,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="238" x14ac:dyDescent="0.2">

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD6B83-BDE1-624B-96BA-A5669B71065C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7DEF5-03F4-964A-8517-D1DE11379B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7DEF5-03F4-964A-8517-D1DE11379B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00F231-325B-CA41-B308-853D2A83D749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,36 +602,11 @@
 Slides: slide- Chapter 3.ppt;</t>
   </si>
   <si>
-    <t>Topic: name- Week 4,lectures- 3 Lectures, duration- 01:40;
-Video: link- https://drive.google.com/file/d/1dWC0HSI8lJ4ASxDgWuTYJ3bl1GrZ-Z-5/preview, name- ATOC Week#4Part1.mp4, duration- 00:50;
-Video: link- https://drive.google.com/file/d/1qLxWUU9e9HeNY8DNLhalPa_CQbaxo8k_/preview, name- ATOC Week#4Part2.mp4, duration- 00:48;
-Video: link- https://drive.google.com/file/d/1ZKP1-pdg6o_ifZ4GOkHRCjUUrnaqArza/preview, name- ATOC Week#4Part3.mp4, duration- 00:02;</t>
-  </si>
-  <si>
-    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:49;
-Video: link- https://drive.google.com/file/d/15puMyWTcN0p2nEstcIl5CfRdY9_QJMQ9/preview, name- ATC Week#3Part1.mp4, duration- 00:31;
-Video: link- https://drive.google.com/file/d/1LHMHVg2vCtKk4WZw6evB8Ly6JOxUGj8X/preview, name- ATC Week#3Part2.mp4, duration- 01:18;
-Slides: slide- Lec1.pdf;</t>
-  </si>
-  <si>
-    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
-Video: link- https://drive.google.com/file/d/1LLPqYvPSZruiDnWQfo4C6cxPAwNAJBAc/preview, name- ATC Week#2.mp4, duration- 01:44;
-Slides: slide- Lec1.pdf;</t>
-  </si>
-  <si>
     <t>Topic: name- Week 1,lectures- 1 Lecture, duration- 01:20;
 Video: link- https://drive.google.com/file/d/19dipmMmEiCQmlntPtJAtKF_DfoD_sufk/preview, name- ATC Week#1.mp4, duration- 01:20;
 Slides: slide- Course.pdf;
 Slides: slide- Lec1.pdf;
 Topics: Finite state machine, Applications of Finite Automata, Proving techniques</t>
-  </si>
-  <si>
-    <t>Topic: name- Week 5, lectures- 4 Lectures, duration- 01:23;
-Video: link- https://drive.google.com/file/d/1MFTDv0iYQzWbW_4VCX7PgDr3-UYf4800/preview, name- ATOC Week#5Part1.mp4, duration- 00:27;
-Video: link- https://drive.google.com/file/d/17RximV5JzVFI3eu-9ir6eFv8s_kbdfAe/preview, name- ATOC Week#5Part2.mp4, duration- 00:01;
-Video: link- https://drive.google.com/file/d/1pSGNEYEJkci8ely09oc-rdTtnI2ljeqE/preview, name- ATOC Week#5Part3.mp4, duration- 00:53;
-Video: link- https://drive.google.com/file/d/1NJH2YpnIsmDwipOJSgILBo_Ta0u6klH4/preview, name- ATOC Week#5Part4.mp4, duration- 00:02;
-Note: heading- Presentation in next class;</t>
   </si>
   <si>
     <t>Topic: name- Week 6, lectures- 3 Lectures, duration- 01:34;
@@ -673,22 +648,56 @@
 Note: heading- Prepare all lectures pasted above.;</t>
   </si>
   <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
+Assignment: name- Course for Mid Term, img- /ATOC/Course.jpeg;
+Slides: slide- Course.pdf;
+Slides: slide- Lec1.pdf;
+Note: heading- Watch all lectures taught in class to prepare for exams;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
+Video: link- https://drive.google.com/file/d/1LLPqYvPSZruiDnWQfo4C6cxPAwNAJBAc/preview, name- ATC Week#2.mp4, duration- 01:44;
+Slides: slide- Lec1.pdf;
+Topics: Constructing DFA;
+Note: heading- Write research paper on your favorite article;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 3,lectures- 2 Lectures, duration- 01:49;
+Video: link- https://drive.google.com/file/d/15puMyWTcN0p2nEstcIl5CfRdY9_QJMQ9/preview, name- ATC Week#3Part1.mp4, duration- 00:31;
+Video: link- https://drive.google.com/file/d/1LHMHVg2vCtKk4WZw6evB8Ly6JOxUGj8X/preview, name- ATC Week#3Part2.mp4, duration- 01:18;
+Slides: slide- Lec1.pdf;
+Topics: Constructing NFA;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 4,lectures- 3 Lectures, duration- 01:40;
+Video: link- https://drive.google.com/file/d/1dWC0HSI8lJ4ASxDgWuTYJ3bl1GrZ-Z-5/preview, name- ATOC Week#4Part1.mp4, duration- 00:50;
+Video: link- https://drive.google.com/file/d/1qLxWUU9e9HeNY8DNLhalPa_CQbaxo8k_/preview, name- ATOC Week#4Part2.mp4, duration- 00:48;
+Video: link- https://drive.google.com/file/d/1ZKP1-pdg6o_ifZ4GOkHRCjUUrnaqArza/preview, name- ATOC Week#4Part3.mp4, duration- 00:02;
+Topics: Conversion of NFA to DFA;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 5, lectures- 4 Lectures, duration- 01:23;
+Video: link- https://drive.google.com/file/d/1MFTDv0iYQzWbW_4VCX7PgDr3-UYf4800/preview, name- ATOC Week#5Part1.mp4, duration- 00:27;
+Video: link- https://drive.google.com/file/d/17RximV5JzVFI3eu-9ir6eFv8s_kbdfAe/preview, name- ATOC Week#5Part2.mp4, duration- 00:01;
+Video: link- https://drive.google.com/file/d/1pSGNEYEJkci8ely09oc-rdTtnI2ljeqE/preview, name- ATOC Week#5Part3.mp4, duration- 00:53;
+Video: link- https://drive.google.com/file/d/1NJH2YpnIsmDwipOJSgILBo_Ta0u6klH4/preview, name- ATOC Week#5Part4.mp4, duration- 00:02;
+Topics: Research Methods, Minimization of DFAs;
+Note: heading- Presentation in next class;</t>
+  </si>
+  <si>
     <t>Topic: name- Mid Term Exam, lectures- , duration-  14 Mar | 11:00-12:30;
 Assignment: name- Course for Mid Term, img- /STQA/course.jpeg;
+Assignment: name- Paper pattern, img- /STQA/pattern.jpeg;
+Assignment: name- Advise from sir regarding paper, img- /STQA/advise.jpeg;
 Slides: slide- Chapter1.pptx;
 Slides: slide- Chapter2.pptx;
 Slides: slide- Chapter3.ppt;
 Slides: slide- Paper No 1.pdf;
 Slides: slide- Paper No 2.pdf;
 Slides: slide- Paper No 3.pdf;
+Slides: slide- Paper No 4.pdf;
+Slides: slide- Paper No 5.pdf;
 Note: heading- Prepare all lectures pasted above. Must read book. I do not have yet. I will share as I get it.;</t>
-  </si>
-  <si>
-    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
-Assignment: name- Course for Mid Term, img- /ATOC/Course.jpeg;
-Slides: slide- Course.pdf;
-Slides: slide- Lec1.pdf;
-Note: heading- Watch all lectures taught in class to prepare for exams;</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1211,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>83</v>
@@ -1228,13 +1237,13 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N4" s="6"/>
     </row>
@@ -1253,17 +1262,17 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="238" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>43739</v>
       </c>
@@ -1278,13 +1287,13 @@
         <v>34</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N6" s="5"/>
     </row>
@@ -1304,10 +1313,10 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -1327,13 +1336,13 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>43775</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="238" x14ac:dyDescent="0.2">

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00F231-325B-CA41-B308-853D2A83D749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1DDBA-FAC7-9E4F-ACF4-B518631763A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>

--- a/static/life.xlsx
+++ b/static/life.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1DDBA-FAC7-9E4F-ACF4-B518631763A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1C306-27C8-C546-87C0-D47F1E98B7CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{2E76D17A-07E1-904B-8BB7-AAF347409254}"/>
   </bookViews>
@@ -609,12 +609,6 @@
 Topics: Finite state machine, Applications of Finite Automata, Proving techniques</t>
   </si>
   <si>
-    <t>Topic: name- Week 6, lectures- 3 Lectures, duration- 01:34;
-Video: link- https://drive.google.com/file/d/1XSMfs_FmJKSzxEFjuYD_4Wu-qYSvFrai/preview, name- ATOC Week#6Part1.mp4, duration- 00:18;
-Video: link- https://drive.google.com/file/d/1ukdXyaYhnJEsV2N4Y8-I6metWzm4_qqu/preview, name- ATOC Week#6Part2.mp4, duration- 01:14;
-Video: link- https://drive.google.com/file/d/1P6PLNm_nXYdaUmOX-W4U0IwYRNgbp8FR/preview, name- ATOC Week#6Part3.mp4, duration- 00:02;</t>
-  </si>
-  <si>
     <t>Topic: name- Week 2, lectures- 1 Lecture, duration- 00:35;
 Video: link- https://drive.google.com/file/d/1Q6d8GiRyOwbBX8aSjLix4pxttUs9xB_-/preview, name- STQA Week#2part1.mp4, duration- 00:35;</t>
   </si>
@@ -646,13 +640,6 @@
 Slides: slide- Chapter 3.ppt;
 Assignment: name- Picture of Board, img- /AOS/board.jpeg;
 Note: heading- Prepare all lectures pasted above.;</t>
-  </si>
-  <si>
-    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
-Assignment: name- Course for Mid Term, img- /ATOC/Course.jpeg;
-Slides: slide- Course.pdf;
-Slides: slide- Lec1.pdf;
-Note: heading- Watch all lectures taught in class to prepare for exams;</t>
   </si>
   <si>
     <t>Topic: name- Week 2,lectures- 1 Lecture, duration- 01:44;
@@ -698,6 +685,19 @@
 Slides: slide- Paper No 4.pdf;
 Slides: slide- Paper No 5.pdf;
 Note: heading- Prepare all lectures pasted above. Must read book. I do not have yet. I will share as I get it.;</t>
+  </si>
+  <si>
+    <t>Topic: name- Mid Term Exam, lectures- , duration-  13 Mar | 15:00-16:30;
+Assignment: name- Course for Mid Term, img- /ATOC/Course.jpeg;
+Slides: slide- Course.pdf;
+Slides: slide- Lec1.pdf;
+Slides: slide- Reguler Expressions.pdf;
+Note: heading- Watch all lectures taught in class to prepare for exams;</t>
+  </si>
+  <si>
+    <t>Topic: name- Week 7, lectures- 1 Lecture, duration- 01:13;
+Video: link- https://drive.google.com/file/d/1p-1QLaPQPeGnHZXiKA93tftQWnN9nJHb/preview, name- ATOC Week#7Part1.mp4, duration- 01:13;
+Topics: Regular Expressions</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB8366-CFB7-BD41-BAF1-2BC53FC93C19}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,13 +1237,13 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="6"/>
     </row>
@@ -1262,13 +1262,13 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="5"/>
     </row>
@@ -1287,13 +1287,13 @@
         <v>34</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="N6" s="5"/>
     </row>
@@ -1313,10 +1313,10 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -1335,14 +1335,11 @@
         <v>40</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>43775</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="238" x14ac:dyDescent="0.2">
@@ -1371,6 +1368,9 @@
       </c>
       <c r="E10" s="14" t="s">
         <v>60</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="306" x14ac:dyDescent="0.2">
